--- a/rnaSample/rnaSample_hbrown_10.14.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.14.19.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">4c 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
   <si>
     <t xml:space="preserve">4c 2</t>
@@ -328,7 +328,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H37"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,7 +410,8 @@
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="b">
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -451,10 +452,11 @@
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="b">
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -477,10 +479,11 @@
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="b">
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -503,10 +506,11 @@
       <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="b">
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -529,10 +533,11 @@
       <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="b">
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -555,10 +560,11 @@
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="b">
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -581,10 +587,11 @@
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="b">
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -607,10 +614,11 @@
       <c r="F9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="b">
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -633,10 +641,11 @@
       <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="b">
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -659,10 +668,11 @@
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="b">
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -685,10 +695,11 @@
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="b">
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -711,10 +722,11 @@
       <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="b">
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -737,10 +749,11 @@
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="b">
+      <c r="G14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -763,10 +776,11 @@
       <c r="F15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="b">
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -789,10 +803,11 @@
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="b">
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -815,10 +830,11 @@
       <c r="F17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="b">
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -841,10 +857,11 @@
       <c r="F18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="b">
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -867,10 +884,11 @@
       <c r="F19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="b">
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -893,10 +911,11 @@
       <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="b">
+      <c r="G20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -919,10 +938,11 @@
       <c r="F21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="6" t="b">
+      <c r="G21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -945,10 +965,11 @@
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="b">
+      <c r="G22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -971,10 +992,11 @@
       <c r="F23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="6" t="b">
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -997,10 +1019,11 @@
       <c r="F24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="6" t="b">
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1023,10 +1046,11 @@
       <c r="F25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="6" t="b">
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1049,10 +1073,11 @@
       <c r="F26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="6" t="b">
+      <c r="G26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1075,10 +1100,11 @@
       <c r="F27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="6" t="b">
+      <c r="G27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1101,10 +1127,11 @@
       <c r="F28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="6" t="b">
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1127,10 +1154,11 @@
       <c r="F29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="6" t="b">
+      <c r="G29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1153,10 +1181,11 @@
       <c r="F30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="6" t="b">
+      <c r="G30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1179,10 +1208,11 @@
       <c r="F31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="6" t="b">
+      <c r="G31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1205,10 +1235,11 @@
       <c r="F32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="6" t="b">
+      <c r="G32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1231,10 +1262,11 @@
       <c r="F33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="6" t="b">
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1257,10 +1289,11 @@
       <c r="F34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="6" t="b">
+      <c r="G34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1283,10 +1316,11 @@
       <c r="F35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="6" t="b">
+      <c r="G35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1309,10 +1343,11 @@
       <c r="F36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="6" t="b">
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1335,10 +1370,11 @@
       <c r="F37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="6" t="b">
+      <c r="G37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_hbrown_10.14.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.14.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -215,6 +215,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,15 +298,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,7 +338,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -343,7 +353,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -389,28 +399,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="n">
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -437,7 +447,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -446,16 +456,16 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="n">
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -464,7 +474,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -473,16 +483,16 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="n">
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -491,7 +501,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -500,16 +510,16 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -518,7 +528,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -527,16 +537,16 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="n">
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -545,7 +555,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -554,16 +564,16 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="n">
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -572,7 +582,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -581,16 +591,16 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="n">
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -599,7 +609,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -608,16 +618,16 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -626,7 +636,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -635,16 +645,16 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="n">
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -653,7 +663,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -662,16 +672,16 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="n">
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -680,7 +690,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -689,16 +699,16 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="n">
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -707,7 +717,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -716,16 +726,16 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="n">
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -734,7 +744,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -743,16 +753,16 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="n">
+      <c r="G14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -761,7 +771,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -770,16 +780,16 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="n">
+      <c r="G15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -788,7 +798,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -797,16 +807,16 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="n">
+      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -815,7 +825,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -824,16 +834,16 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="n">
+      <c r="G17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -842,7 +852,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -851,16 +861,16 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="n">
+      <c r="G18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -869,7 +879,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -878,16 +888,16 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="n">
+      <c r="G19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -896,7 +906,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -905,16 +915,16 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="n">
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -923,7 +933,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -932,16 +942,16 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="6" t="n">
+      <c r="G21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -950,7 +960,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -959,16 +969,16 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="n">
+      <c r="G22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -977,7 +987,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -986,16 +996,16 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="6" t="n">
+      <c r="G23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1004,7 +1014,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1013,16 +1023,16 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="6" t="n">
+      <c r="G24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1031,7 +1041,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1040,16 +1050,16 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="6" t="n">
+      <c r="G25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1058,7 +1068,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1067,16 +1077,16 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="6" t="n">
+      <c r="G26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1085,7 +1095,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1094,16 +1104,16 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="6" t="n">
+      <c r="G27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1112,7 +1122,7 @@
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1121,16 +1131,16 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="6" t="n">
+      <c r="G28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1139,7 +1149,7 @@
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1148,16 +1158,16 @@
       <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="6" t="n">
+      <c r="G29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1166,7 +1176,7 @@
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1175,16 +1185,16 @@
       <c r="D30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="6" t="n">
+      <c r="G30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1193,7 +1203,7 @@
       <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1202,16 +1212,16 @@
       <c r="D31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="6" t="n">
+      <c r="G31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1220,7 +1230,7 @@
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1229,16 +1239,16 @@
       <c r="D32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="6" t="n">
+      <c r="G32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1247,7 +1257,7 @@
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1256,16 +1266,16 @@
       <c r="D33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="6" t="n">
+      <c r="G33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1274,7 +1284,7 @@
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1283,16 +1293,16 @@
       <c r="D34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="6" t="n">
+      <c r="G34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1301,7 +1311,7 @@
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1310,16 +1320,16 @@
       <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="6" t="n">
+      <c r="G35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1328,7 +1338,7 @@
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1337,16 +1347,16 @@
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="6" t="n">
+      <c r="G36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1355,7 +1365,7 @@
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1364,16 +1374,16 @@
       <c r="D37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="6" t="n">
+      <c r="G37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/rnaSample/rnaSample_hbrown_10.14.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.14.19.xlsx
@@ -186,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -215,12 +215,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -285,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,23 +292,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,13 +325,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
   </cols>
@@ -353,7 +343,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -399,29 +389,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -447,7 +436,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -456,17 +445,16 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -474,7 +462,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -483,17 +471,16 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -501,7 +488,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -510,17 +497,16 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -528,7 +514,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -537,17 +523,16 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -555,7 +540,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -564,17 +549,16 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -582,7 +566,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -591,17 +575,16 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -609,7 +592,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -618,17 +601,16 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,7 +618,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -645,17 +627,16 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -663,7 +644,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -672,17 +653,16 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -690,7 +670,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -699,17 +679,16 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -717,7 +696,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -726,17 +705,16 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -744,7 +722,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -753,17 +731,16 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -771,7 +748,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -780,17 +757,16 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -798,7 +774,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -807,17 +783,16 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -825,7 +800,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -834,17 +809,16 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -852,7 +826,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -861,17 +835,16 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -879,7 +852,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -888,17 +861,16 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -906,7 +878,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -915,17 +887,16 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -933,7 +904,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -942,17 +913,16 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -960,7 +930,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -969,17 +939,16 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -987,7 +956,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -996,17 +965,16 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1014,7 +982,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1023,17 +991,16 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1041,7 +1008,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1050,17 +1017,16 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1068,7 +1034,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1077,17 +1043,16 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1095,7 +1060,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1104,17 +1069,16 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1122,7 +1086,7 @@
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1131,17 +1095,16 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1149,7 +1112,7 @@
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1158,17 +1121,16 @@
       <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1176,7 +1138,7 @@
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1185,17 +1147,16 @@
       <c r="D30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1203,7 +1164,7 @@
       <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1212,17 +1173,16 @@
       <c r="D31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1230,7 +1190,7 @@
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1239,17 +1199,16 @@
       <c r="D32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1257,7 +1216,7 @@
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1266,17 +1225,16 @@
       <c r="D33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1284,7 +1242,7 @@
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1293,17 +1251,16 @@
       <c r="D34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1311,7 +1268,7 @@
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1320,17 +1277,16 @@
       <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1338,7 +1294,7 @@
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1347,17 +1303,16 @@
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1365,7 +1320,7 @@
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1374,21 +1329,19 @@
       <c r="D37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G37" type="list">

--- a/rnaSample/rnaSample_hbrown_10.14.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.14.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7291F482-583A-5649-8FA4-AA9AFEDAE26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C9BA10-93D3-2B4D-9C61-65CC5F2C3CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -62,14 +62,14 @@
   <si>
     <t>TRIzol</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +135,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,8 +527,8 @@
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="b">
-        <v>0</v>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -571,8 +571,8 @@
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -597,8 +597,8 @@
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="b">
-        <v>0</v>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -623,8 +623,8 @@
       <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="b">
-        <v>0</v>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -649,8 +649,8 @@
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -675,8 +675,8 @@
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -701,8 +701,8 @@
       <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6" t="b">
-        <v>0</v>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -727,8 +727,8 @@
       <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6" t="b">
-        <v>0</v>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -753,8 +753,8 @@
       <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6" t="b">
-        <v>0</v>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -779,8 +779,8 @@
       <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="6" t="b">
-        <v>0</v>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -805,8 +805,8 @@
       <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="b">
-        <v>0</v>
+      <c r="H12" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -831,8 +831,8 @@
       <c r="G13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="6" t="b">
-        <v>0</v>
+      <c r="H13" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -857,8 +857,8 @@
       <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="6" t="b">
-        <v>0</v>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -883,8 +883,8 @@
       <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="6" t="b">
-        <v>0</v>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -909,8 +909,8 @@
       <c r="G16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="6" t="b">
-        <v>0</v>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -935,8 +935,8 @@
       <c r="G17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="6" t="b">
-        <v>0</v>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -961,8 +961,8 @@
       <c r="G18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="6" t="b">
-        <v>0</v>
+      <c r="H18" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -987,8 +987,8 @@
       <c r="G19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="6" t="b">
-        <v>0</v>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1013,8 +1013,8 @@
       <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="6" t="b">
-        <v>0</v>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,8 +1039,8 @@
       <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="6" t="b">
-        <v>0</v>
+      <c r="H21" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1065,8 +1065,8 @@
       <c r="G22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="6" t="b">
-        <v>0</v>
+      <c r="H22" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,8 +1091,8 @@
       <c r="G23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="6" t="b">
-        <v>0</v>
+      <c r="H23" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1117,8 +1117,8 @@
       <c r="G24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="6" t="b">
-        <v>0</v>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1143,8 +1143,8 @@
       <c r="G25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="6" t="b">
-        <v>0</v>
+      <c r="H25" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1169,8 +1169,8 @@
       <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="6" t="b">
-        <v>0</v>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1195,8 +1195,8 @@
       <c r="G27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="6" t="b">
-        <v>0</v>
+      <c r="H27" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1221,8 +1221,8 @@
       <c r="G28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="6" t="b">
-        <v>0</v>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1247,8 +1247,8 @@
       <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="6" t="b">
-        <v>0</v>
+      <c r="H29" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1273,8 +1273,8 @@
       <c r="G30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="6" t="b">
-        <v>0</v>
+      <c r="H30" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,8 +1299,8 @@
       <c r="G31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="6" t="b">
-        <v>0</v>
+      <c r="H31" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1325,8 +1325,8 @@
       <c r="G32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="6" t="b">
-        <v>0</v>
+      <c r="H32" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1351,8 +1351,8 @@
       <c r="G33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="6" t="b">
-        <v>0</v>
+      <c r="H33" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1377,8 +1377,8 @@
       <c r="G34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="6" t="b">
-        <v>0</v>
+      <c r="H34" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1403,8 +1403,8 @@
       <c r="G35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="6" t="b">
-        <v>0</v>
+      <c r="H35" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1429,8 +1429,8 @@
       <c r="G36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="6" t="b">
-        <v>0</v>
+      <c r="H36" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1455,8 +1455,8 @@
       <c r="G37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="6" t="b">
-        <v>0</v>
+      <c r="H37" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
